--- a/biology/Zoologie/Anhydrophryne_hewitti/Anhydrophryne_hewitti.xlsx
+++ b/biology/Zoologie/Anhydrophryne_hewitti/Anhydrophryne_hewitti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anhydrophryne hewitti est une espèce d'amphibiens de la famille des Pyxicephalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anhydrophryne hewitti est une espèce d'amphibiens de la famille des Pyxicephalidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de KwaZulu-Natal en Afrique du Sud. Elle pourrait être présente au Lesotho[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de KwaZulu-Natal en Afrique du Sud. Elle pourrait être présente au Lesotho.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à John Hewitt, zoologiste sud-africain d'origine britannique.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>FitzSimons, 1947 : Descriptions of new species and subspecies of reptiles and amphibians from Natal, together with notes on some other little known species. Annals of the Natal Museum, vol. 11, no 1, p. 111–137 (texte intégral).</t>
         </is>
